--- a/informe/tables/parameters_clustering_kmeans.xlsx
+++ b/informe/tables/parameters_clustering_kmeans.xlsx
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.76854524612427</v>
+        <v>0.280001163482666</v>
       </c>
       <c r="C2" t="n">
-        <v>4.689267279331289</v>
+        <v>0.02420829839160655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001565885543823242</v>
+        <v>0.002199649810791016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004431528247568045</v>
+        <v>0.0009806436077456826</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -765,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.32414422035217</v>
+        <v>0.2511991500854492</v>
       </c>
       <c r="C3" t="n">
-        <v>3.149323034329614</v>
+        <v>0.06324457080902327</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000897216796875</v>
+        <v>0.001199769973754883</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002110314696608663</v>
+        <v>0.0009796082323400034</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -850,16 +850,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.19079394340515</v>
+        <v>0.4536022663116455</v>
       </c>
       <c r="C4" t="n">
-        <v>3.449381250507333</v>
+        <v>0.03796107966556436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006371498107910156</v>
+        <v>0.0006003856658935546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006001391206449042</v>
+        <v>0.0004902130521619546</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -935,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.48456883430481</v>
+        <v>0.3735981941223144</v>
       </c>
       <c r="C5" t="n">
-        <v>4.007040124467167</v>
+        <v>0.1163218135013486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009397983551025391</v>
+        <v>0.0005993366241455079</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001786060650902334</v>
+        <v>0.0004893575202415823</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.51967658996582</v>
+        <v>0.2753386974334717</v>
       </c>
       <c r="C6" t="n">
-        <v>4.569722704946789</v>
+        <v>0.02351452262420513</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006927967071533204</v>
+        <v>0.0004002094268798828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004038486839287175</v>
+        <v>0.0004901544952403919</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1105,16 +1105,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.1473970413208</v>
+        <v>0.1959408283233643</v>
       </c>
       <c r="C7" t="n">
-        <v>5.164968141967854</v>
+        <v>0.03365525049482625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006005287170410157</v>
+        <v>0.0002417564392089844</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004904669544647398</v>
+        <v>0.0004835128784179688</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
